--- a/circuits/Imposition/1stLayer_Power/1stLayer_Power.xlsx
+++ b/circuits/Imposition/1stLayer_Power/1stLayer_Power.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TomoshibiRepository\MovingDisplay3-Circuit\circuits\Imposition\1stLayer_Power\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E837BA-7C8F-4520-99A0-1375B2D41C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,252 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1枚当たりの個数</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電解コン</t>
+    <rPh sb="0" eb="2">
+      <t>デンカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>25V</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g111878/</t>
+  </si>
+  <si>
+    <t>ショットキー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1 x 10P / V / 1.27mm / THT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ピンソケット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ソケット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PicoBlade</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポスト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ハウジング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コンタクト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PchFET</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中耐圧</t>
+    <rPh sb="0" eb="3">
+      <t>チュウタイアツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スライド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>330uF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小信号</t>
+    <rPh sb="0" eb="3">
+      <t>ショウシンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CUS10F30</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g107687/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヒューズボックス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボックスヘッダ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2 x 7P / H / 1.27mm / THT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/cnc-tech/3220-14-0200-00/3882957</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MiniSPOX</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Wire-To-Board-Connector_MOLEX-22057025_C240819.html?s_z=n_spox</t>
+  </si>
+  <si>
+    <t>2P</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Housings-Wire-To-Board-Wire-To-Wire_MOLEX-50375023_C142370.html?s_z=n_spox</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2P / V</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8P / V</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8P</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SPDT / THT / 大 / 縦 / 黒</t>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XT30</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g103252/</t>
+  </si>
+  <si>
+    <t>SS22F06G5-G</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/vishay-siliconix/SQS141ELNW-T1-GE3/16639865?s=N4IgTCBcDaIMoEU4EYAsyCiAZAcgdRAF0BfIA</t>
+  </si>
+  <si>
+    <t>大電流用</t>
+    <rPh sb="0" eb="3">
+      <t>ダイデンリュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SQS141ELNW</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g108695/</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/g106978/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/keystone-electronics/3568/2137306</t>
+  </si>
+  <si>
+    <t>ミゼット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Wire-To-Board-Connector_Hong-Cheng-HCZZ0015-8_C7433474.html?s_z=n_C7433474</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Housings-Wire-To-Board-Wire-To-Wire_MOLEX-510210800_C385106.html?s_z=n_C385106</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +277,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -45,15 +351,392 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1013,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="16.8125" customWidth="1"/>
+    <col min="2" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="6" width="16.1875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickTop="1">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1" ht="18" thickBot="1">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="14">
+        <v>150</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="35" customFormat="1" ht="18" thickTop="1">
+      <c r="A6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33">
+        <v>3</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="31" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" s="35" customFormat="1">
+      <c r="A9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="20">
+        <v>22035025</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19">
+        <v>4</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="35" customFormat="1">
+      <c r="A10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="20">
+        <v>50375023</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19">
+        <v>4</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="35" customFormat="1">
+      <c r="A11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20">
+        <v>8701039</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19">
+        <v>2</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1">
+      <c r="A14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" s="46" customFormat="1" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42">
+        <v>2</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="31" customFormat="1" ht="18.399999999999999" thickTop="1" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="18" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{9FF309FE-9225-4B3C-BBC5-4F10FE7676AD}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{BDB1F58E-CD15-42B3-A281-4380AAC9AE31}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{10055922-4B5E-450B-812B-323CFA44C98A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>